--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Documents\angela\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicr\Documents\2024-1\Ling. computacional\Trabajo\Conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48387F0F-CDE2-47D9-AD73-E9442D87F506}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E0A917-CB5C-4703-BDDC-2F7C624BA2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{7E9296A5-FEDE-40ED-A951-BD77C6F3F0CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7E9296A5-FEDE-40ED-A951-BD77C6F3F0CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>puñuy</t>
   </si>
@@ -43,6 +43,42 @@
   </si>
   <si>
     <t>espanol</t>
+  </si>
+  <si>
+    <t>riy</t>
+  </si>
+  <si>
+    <t>ir</t>
+  </si>
+  <si>
+    <t>comer</t>
+  </si>
+  <si>
+    <t>rantiy</t>
+  </si>
+  <si>
+    <t>comprar</t>
+  </si>
+  <si>
+    <t>pukllay</t>
+  </si>
+  <si>
+    <t>jugar</t>
+  </si>
+  <si>
+    <t>apay</t>
+  </si>
+  <si>
+    <t>llevar</t>
+  </si>
+  <si>
+    <t>apamuy</t>
+  </si>
+  <si>
+    <t>traer</t>
+  </si>
+  <si>
+    <t>mikuy</t>
   </si>
 </sst>
 </file>
@@ -395,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7D5871-2114-4B55-8C69-5C84ABA3FBB3}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,6 +463,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
